--- a/SPEKTRAL_ANALİZ/EXCELLER/gokceada_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/gokceada_tudes_ssh_model.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         <v>0.05531017648287385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04291812977993764</v>
+        <v>0.04657572292138412</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.01081978046594982</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05546493718638446</v>
+        <v>0.04759373433375309</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>-0.01078985020258688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05128431800607235</v>
+        <v>0.03776145169359826</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>-0.01408240740740741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03630653414098931</v>
+        <v>0.02426686215707155</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.04296964605734767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02059402856151892</v>
+        <v>0.01574298094039613</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>0.03889583333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009612132750766611</v>
+        <v>0.0149508665934305</v>
       </c>
     </row>
     <row r="8">
@@ -545,12 +545,8 @@
       <c r="B8" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1014388635655291</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001525546036727901</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -563,7 +559,7 @@
         <v>0.05759817804624081</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007515917497469972</v>
+        <v>0.01792480231506387</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +573,7 @@
         <v>0.08082936507936508</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01631260571855711</v>
+        <v>0.01545324870638823</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +587,7 @@
         <v>-0.02000095715216683</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01769738475286357</v>
+        <v>0.01537710663666115</v>
       </c>
     </row>
     <row r="12">
@@ -601,12 +597,8 @@
       <c r="B12" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.04835704966329966</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.005250046297124666</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -619,7 +611,7 @@
         <v>0.04201433691756273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01894933366354429</v>
+        <v>0.03602955308306182</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +625,7 @@
         <v>0.09779641203703703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04363866002548993</v>
+        <v>0.04717474290408915</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +639,7 @@
         <v>0.05035338261648745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05618546743193675</v>
+        <v>0.04819275431645812</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +653,7 @@
         <v>0.07589931214421251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05200484825162466</v>
+        <v>0.03836047167630331</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +667,7 @@
         <v>0.07286875000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03702706438654165</v>
+        <v>0.02486588213977661</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +681,7 @@
         <v>0.04408552477793361</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02131455880707124</v>
+        <v>0.01634200092310116</v>
       </c>
     </row>
     <row r="19">
@@ -699,12 +691,8 @@
       <c r="B19" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.1079718146135266</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01033266299631891</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -713,12 +701,8 @@
       <c r="B20" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.1229370178821879</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.002246076282280213</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -731,7 +715,7 @@
         <v>0.000107997046198309</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.006795387251917646</v>
+        <v>0.01852382229776891</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +729,7 @@
         <v>-0.02675632440476191</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01559207547300482</v>
+        <v>0.01605226868909326</v>
       </c>
     </row>
     <row r="23">
@@ -755,12 +739,8 @@
       <c r="B23" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.05876499700723929</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.01697685450731126</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -773,7 +753,7 @@
         <v>-0.03326989963036159</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00452951605157241</v>
+        <v>0.0233329491424024</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +767,7 @@
         <v>-0.02615391821440208</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01966986390909653</v>
+        <v>0.03662857306576683</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +781,7 @@
         <v>0.02822025462962963</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04435919027104222</v>
+        <v>0.04777376288679418</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +795,7 @@
         <v>0.08028080197132617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05690599767748906</v>
+        <v>0.04879177429916315</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +809,7 @@
         <v>0.02462925627240143</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05272537849717696</v>
+        <v>0.03895949165900833</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +823,7 @@
         <v>0.04479108796296296</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03774759463209394</v>
+        <v>0.02546490212248162</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +837,7 @@
         <v>-0.02154273873527906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02203508905262355</v>
+        <v>0.0169410209058062</v>
       </c>
     </row>
     <row r="31">
@@ -867,12 +847,8 @@
       <c r="B31" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="C31" t="n">
-        <v>-0.09707250402576491</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.01105319324187122</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -881,12 +857,8 @@
       <c r="B32" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.04291252815674275</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.002966606527832552</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -895,12 +867,8 @@
       <c r="B33" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.06884610215053763</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.006074857006365342</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -909,12 +877,8 @@
       <c r="B34" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.1176546161443088</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.01487154522745249</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -924,11 +888,9 @@
         <v>40969</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.132090092722456</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.01625632426175895</v>
-      </c>
+        <v>0.004663073671497582</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -938,10 +900,10 @@
         <v>41000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004663073671497582</v>
+        <v>0.009690492191500257</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.003808985806020048</v>
+        <v>0.01657514660207121</v>
       </c>
     </row>
     <row r="37">
@@ -951,11 +913,9 @@
       <c r="B37" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.009690492191500257</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0.02039039415464891</v>
+        <v>0.02393196912510747</v>
       </c>
     </row>
     <row r="38">
@@ -966,11 +926,9 @@
         <v>41061</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.04890694444444445</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.04507972051659452</v>
-      </c>
+        <v>0.02117540322580645</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -980,10 +938,10 @@
         <v>41091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02117540322580645</v>
+        <v>0.04363720878136201</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05762652792304136</v>
+        <v>0.04837278286949921</v>
       </c>
     </row>
     <row r="40">
@@ -994,10 +952,10 @@
         <v>41122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04363720878136201</v>
+        <v>0.01849224537037037</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0534459087427293</v>
+        <v>0.0493907942818682</v>
       </c>
     </row>
     <row r="41">
@@ -1008,10 +966,10 @@
         <v>41153</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01849224537037037</v>
+        <v>0.0626084229390681</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0384681248776463</v>
+        <v>0.03955851164171341</v>
       </c>
     </row>
     <row r="42">
@@ -1022,10 +980,10 @@
         <v>41183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0626084229390681</v>
+        <v>-0.02172317330917874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02275561929817581</v>
+        <v>0.0260639221051867</v>
       </c>
     </row>
     <row r="43">
@@ -1036,10 +994,10 @@
         <v>41214</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02172317330917874</v>
+        <v>0.04261662450744674</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01177372348742359</v>
+        <v>0.01754004088851122</v>
       </c>
     </row>
     <row r="44">
@@ -1050,10 +1008,10 @@
         <v>41244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04261662450744674</v>
+        <v>0.03691173835125448</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003687136773384829</v>
+        <v>0.01674792654154558</v>
       </c>
     </row>
     <row r="45">
@@ -1064,10 +1022,10 @@
         <v>41275</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03691173835125448</v>
+        <v>0.01359779373706004</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.005354326760813037</v>
+        <v>0.01937314165434042</v>
       </c>
     </row>
     <row r="46">
@@ -1078,10 +1036,10 @@
         <v>41306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01359779373706004</v>
+        <v>0.04537311478471707</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01415101498190018</v>
+        <v>0.01972186226317897</v>
       </c>
     </row>
     <row r="47">
@@ -1092,10 +1050,10 @@
         <v>41334</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04537311478471707</v>
+        <v>-0.01437569444444444</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01553579401620665</v>
+        <v>0.01725030865450333</v>
       </c>
     </row>
     <row r="48">
@@ -1106,10 +1064,10 @@
         <v>41365</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01437569444444444</v>
+        <v>0.05217537887642201</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003088455560467888</v>
+        <v>0.01717416658477624</v>
       </c>
     </row>
     <row r="49">
@@ -1120,10 +1078,10 @@
         <v>41395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05217537887642201</v>
+        <v>0.031334375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0211109244002012</v>
+        <v>0.02453098910781241</v>
       </c>
     </row>
     <row r="50">
@@ -1134,10 +1092,10 @@
         <v>41426</v>
       </c>
       <c r="C50" t="n">
-        <v>0.031334375</v>
+        <v>0.0444176747311828</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0458002507621468</v>
+        <v>0.03782661303117692</v>
       </c>
     </row>
     <row r="51">
@@ -1148,10 +1106,10 @@
         <v>41456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0444176747311828</v>
+        <v>0.07709655017921148</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05834705816859366</v>
+        <v>0.04897180285220423</v>
       </c>
     </row>
     <row r="52">
@@ -1162,10 +1120,10 @@
         <v>41487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07709655017921148</v>
+        <v>0.03575636574074074</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05416643898828153</v>
+        <v>0.04998981426457323</v>
       </c>
     </row>
     <row r="53">
@@ -1176,10 +1134,10 @@
         <v>41518</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03575636574074074</v>
+        <v>0.003997719126751385</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03918865512319861</v>
+        <v>0.04015753162441835</v>
       </c>
     </row>
     <row r="54">
@@ -1190,10 +1148,10 @@
         <v>41548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003997719126751385</v>
+        <v>0.06574940619967794</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02347614954372812</v>
+        <v>0.02666294208789173</v>
       </c>
     </row>
     <row r="55">
@@ -1203,11 +1161,9 @@
       <c r="B55" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.06574940619967794</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>0.01249425373297583</v>
+        <v>0.01813906087121625</v>
       </c>
     </row>
     <row r="56">
@@ -1218,11 +1174,9 @@
         <v>41609</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0997082446522211</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.004407667018937134</v>
-      </c>
+        <v>0.009471231869184455</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1231,11 +1185,9 @@
       <c r="B57" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="C57" t="n">
-        <v>0.009471231869184455</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>-0.004633796515260795</v>
+        <v>0.01997216163704545</v>
       </c>
     </row>
     <row r="58">
@@ -1245,12 +1197,8 @@
       <c r="B58" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="C58" t="n">
-        <v>-0.0459892372802095</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.01343048473634788</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1260,11 +1208,9 @@
         <v>41699</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.07737882897603486</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.01481526377065438</v>
-      </c>
+        <v>0.01585393518518518</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1274,10 +1220,10 @@
         <v>41730</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01585393518518518</v>
+        <v>-0.02542533991740689</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.002367925314915462</v>
+        <v>0.01777318656748125</v>
       </c>
     </row>
     <row r="61">
@@ -1288,10 +1234,10 @@
         <v>41760</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02542533991740689</v>
+        <v>0.01301201388888889</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02183145464575349</v>
+        <v>0.02513000909051752</v>
       </c>
     </row>
     <row r="62">
@@ -1302,10 +1248,10 @@
         <v>41791</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01301201388888889</v>
+        <v>0.07601187275985663</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04652078100769896</v>
+        <v>0.03842563301388194</v>
       </c>
     </row>
     <row r="63">
@@ -1316,10 +1262,10 @@
         <v>41821</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07601187275985663</v>
+        <v>0.05870194892473118</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05906758841414596</v>
+        <v>0.04957082283490921</v>
       </c>
     </row>
     <row r="64">
@@ -1330,10 +1276,10 @@
         <v>41852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05870194892473118</v>
+        <v>0.09092708333333334</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05488696923383392</v>
+        <v>0.05058883424727827</v>
       </c>
     </row>
     <row r="65">
@@ -1344,10 +1290,10 @@
         <v>41883</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09097939814814815</v>
+        <v>0.00100693291174925</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03990918536875081</v>
+        <v>0.04075655160712348</v>
       </c>
     </row>
     <row r="66">
@@ -1358,10 +1304,10 @@
         <v>41913</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00100693291174925</v>
+        <v>0.03158222275725322</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02419667978928052</v>
+        <v>0.02726196207059669</v>
       </c>
     </row>
     <row r="67">
@@ -1372,10 +1318,10 @@
         <v>41944</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03158222275725322</v>
+        <v>0.006127201627973761</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01321478397852814</v>
+        <v>0.01873808085392131</v>
       </c>
     </row>
     <row r="68">
@@ -1386,10 +1332,10 @@
         <v>41974</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006127201627973761</v>
+        <v>-0.03743530287176851</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005128197264489386</v>
+        <v>0.01794596650695566</v>
       </c>
     </row>
     <row r="69">
@@ -1400,10 +1346,10 @@
         <v>42005</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03743530287176851</v>
+        <v>-0.01109601271444077</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.003913266269708421</v>
+        <v>0.02057118161975049</v>
       </c>
     </row>
     <row r="70">
@@ -1413,11 +1359,9 @@
       <c r="B70" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="C70" t="n">
-        <v>-0.01109601271444077</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>-0.01270995449079562</v>
+        <v>0.02091990222858904</v>
       </c>
     </row>
     <row r="71">
@@ -1428,11 +1372,9 @@
         <v>42064</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.06603782686798609</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.01409473352510208</v>
-      </c>
+        <v>0.07975471982811204</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1442,10 +1384,10 @@
         <v>42095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07975471982811204</v>
+        <v>0.04217593613834423</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.001647395069363164</v>
+        <v>0.01837220655018628</v>
       </c>
     </row>
     <row r="73">
@@ -1456,11 +1398,9 @@
         <v>42125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.02255198489130597</v>
-      </c>
+        <v>0.04334531810035842</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1470,10 +1410,10 @@
         <v>42156</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04217593613834423</v>
+        <v>0.05533388285690918</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0472413112532514</v>
+        <v>0.02572902907322254</v>
       </c>
     </row>
     <row r="75">
@@ -1484,10 +1424,10 @@
         <v>42186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04334531810035842</v>
+        <v>0.0597918795506418</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05978811865969823</v>
+        <v>0.03902465299658706</v>
       </c>
     </row>
     <row r="76">
@@ -1498,10 +1438,10 @@
         <v>42217</v>
       </c>
       <c r="C76" t="n">
-        <v>0.05533388285690918</v>
+        <v>0.02128443552236394</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05560749947938623</v>
+        <v>0.05016984281761429</v>
       </c>
     </row>
     <row r="77">
@@ -1511,11 +1451,9 @@
       <c r="B77" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.0597918795506418</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>0.04062971561430312</v>
+        <v>0.05118785422998334</v>
       </c>
     </row>
     <row r="78">
@@ -1525,11 +1463,9 @@
       <c r="B78" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.03392633545175005</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>0.02491721003483283</v>
+        <v>0.04135557158982852</v>
       </c>
     </row>
     <row r="79">
@@ -1539,12 +1475,8 @@
       <c r="B79" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="C79" t="n">
-        <v>-0.06505555555555556</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.01393531422408045</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1553,12 +1485,8 @@
       <c r="B80" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="C80" t="n">
-        <v>-0.1142399779040404</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.005848727510041798</v>
-      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1567,12 +1495,8 @@
       <c r="B81" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.1253029224954655</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.003192736024156095</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1582,11 +1506,9 @@
         <v>42401</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1329148528758566</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.01198942424524332</v>
-      </c>
+        <v>0.08769230036581352</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1596,11 +1518,9 @@
         <v>42430</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1463959330083853</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.01337420327954977</v>
-      </c>
+        <v>0.02755969982078853</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1610,10 +1530,10 @@
         <v>42461</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08769230036581352</v>
+        <v>0.05612962962962963</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0009268648238111438</v>
+        <v>0.01904736860261841</v>
       </c>
     </row>
     <row r="85">
@@ -1624,10 +1544,10 @@
         <v>42491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02755969982078853</v>
+        <v>0.07492405913978495</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02327251513685825</v>
+        <v>0.01897122653289131</v>
       </c>
     </row>
     <row r="86">
@@ -1638,10 +1558,10 @@
         <v>42522</v>
       </c>
       <c r="C86" t="n">
-        <v>0.05612962962962963</v>
+        <v>0.08700044802867384</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04796184149880369</v>
+        <v>0.02632804905592741</v>
       </c>
     </row>
     <row r="87">
@@ -1652,10 +1572,10 @@
         <v>42552</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07492405913978495</v>
+        <v>0.06368657407407408</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06050864890525058</v>
+        <v>0.03962367297929208</v>
       </c>
     </row>
     <row r="88">
@@ -1666,10 +1586,10 @@
         <v>42583</v>
       </c>
       <c r="C88" t="n">
-        <v>0.08700044802867384</v>
+        <v>0.008191644265232976</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05632802972493853</v>
+        <v>0.05076886280031932</v>
       </c>
     </row>
     <row r="89">
@@ -1680,10 +1600,10 @@
         <v>42614</v>
       </c>
       <c r="C89" t="n">
-        <v>0.06368657407407408</v>
+        <v>0.03156201388888889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04135024585985566</v>
+        <v>0.0517868742126883</v>
       </c>
     </row>
     <row r="90">
@@ -1693,11 +1613,9 @@
       <c r="B90" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="C90" t="n">
-        <v>0.008191644265232976</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>0.02563774028038514</v>
+        <v>0.04195459157253355</v>
       </c>
     </row>
     <row r="91">
@@ -1707,11 +1625,9 @@
       <c r="B91" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.03156201388888889</v>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>0.01465584446963275</v>
+        <v>0.02846000203600693</v>
       </c>
     </row>
     <row r="92">
@@ -1721,12 +1637,8 @@
       <c r="B92" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="C92" t="n">
-        <v>-0.1141576227926642</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.006569257755593999</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1735,12 +1647,8 @@
       <c r="B93" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="C93" t="n">
-        <v>-0.0908433842981637</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.002472205778603812</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1749,12 +1657,8 @@
       <c r="B94" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="C94" t="n">
-        <v>-0.117793867786349</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.01126889399969092</v>
-      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1764,11 +1668,9 @@
         <v>42795</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.08109500987010537</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.01265367303399748</v>
-      </c>
+        <v>-0.01416655465949821</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1778,11 +1680,9 @@
         <v>42826</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.08138263888888889</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-0.0002063345782585824</v>
-      </c>
+        <v>0.02768773148148148</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1792,10 +1692,10 @@
         <v>42856</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.01416655465949821</v>
+        <v>0.05323543906810036</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02399304538241055</v>
+        <v>0.01957024651559634</v>
       </c>
     </row>
     <row r="98">
@@ -1806,10 +1706,10 @@
         <v>42887</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02768773148148148</v>
+        <v>0.0511510976702509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04868237174435598</v>
+        <v>0.0269270690386326</v>
       </c>
     </row>
     <row r="99">
@@ -1820,10 +1720,10 @@
         <v>42917</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05323543906810036</v>
+        <v>0.05905729166666666</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06122917915080283</v>
+        <v>0.0402226929619971</v>
       </c>
     </row>
     <row r="100">
@@ -1834,10 +1734,10 @@
         <v>42948</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0511510976702509</v>
+        <v>0.02146721137521223</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05704855997049084</v>
+        <v>0.05136788278302434</v>
       </c>
     </row>
     <row r="101">
@@ -1848,10 +1748,10 @@
         <v>42979</v>
       </c>
       <c r="C101" t="n">
-        <v>0.05905729166666666</v>
+        <v>0.04178104953891138</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04207077610540774</v>
+        <v>0.0523858941953934</v>
       </c>
     </row>
     <row r="102">
@@ -1862,10 +1762,10 @@
         <v>43009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02146721137521223</v>
+        <v>-0.005577318015019626</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02635827052593726</v>
+        <v>0.0425536115552386</v>
       </c>
     </row>
     <row r="103">
@@ -1876,10 +1776,10 @@
         <v>43040</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04178104953891138</v>
+        <v>6.753738869967144e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01537637471518506</v>
+        <v>0.0290590220187118</v>
       </c>
     </row>
     <row r="104">
@@ -1890,10 +1790,10 @@
         <v>43070</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.005577318015019626</v>
+        <v>-0.01614101836366856</v>
       </c>
       <c r="D104" t="n">
-        <v>0.007289788001146415</v>
+        <v>0.02053514080203635</v>
       </c>
     </row>
     <row r="105">
@@ -1903,11 +1803,9 @@
       <c r="B105" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="C105" t="n">
-        <v>6.753738869967144e-06</v>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>-0.001751675533051503</v>
+        <v>0.01974302645507075</v>
       </c>
     </row>
     <row r="106">
@@ -1918,10 +1816,10 @@
         <v>43132</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01614101836366856</v>
+        <v>-0.01180046296296296</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0105483637541387</v>
+        <v>0.02236824156786555</v>
       </c>
     </row>
     <row r="107">
@@ -1932,11 +1830,9 @@
         <v>43160</v>
       </c>
       <c r="C107" t="n">
-        <v>0.13180180910019</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-0.01193314278844512</v>
-      </c>
+        <v>0.05717278242649634</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -1945,11 +1841,9 @@
       <c r="B108" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="C108" t="n">
-        <v>-0.01180046296296296</v>
-      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>0.0005141956672937084</v>
+        <v>0.02024540856802847</v>
       </c>
     </row>
     <row r="109">
@@ -1959,11 +1853,9 @@
       <c r="B109" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="C109" t="n">
-        <v>0.05717278242649634</v>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>0.02471357562796248</v>
+        <v>0.02016926649830141</v>
       </c>
     </row>
     <row r="110">
@@ -1974,11 +1866,9 @@
         <v>43252</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1074493375046007</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.04940290198990828</v>
-      </c>
+        <v>0.05602576315568963</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -1988,11 +1878,9 @@
         <v>43282</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119460620829903</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.06194970939635513</v>
-      </c>
+        <v>0.02540921959363455</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2002,10 +1890,10 @@
         <v>43313</v>
       </c>
       <c r="C112" t="n">
-        <v>0.05602576315568963</v>
+        <v>0.01844550556498774</v>
       </c>
       <c r="D112" t="n">
-        <v>0.057769090216043</v>
+        <v>0.05196690276572936</v>
       </c>
     </row>
     <row r="113">
@@ -2016,10 +1904,10 @@
         <v>43344</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02540921959363455</v>
+        <v>0.02233744765109854</v>
       </c>
       <c r="D113" t="n">
-        <v>0.04279130635096005</v>
+        <v>0.05298491417809843</v>
       </c>
     </row>
     <row r="114">
@@ -2030,10 +1918,10 @@
         <v>43374</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01844550556498774</v>
+        <v>0.03803986396374789</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02707880077148975</v>
+        <v>0.04315263153794345</v>
       </c>
     </row>
     <row r="115">
@@ -2044,10 +1932,10 @@
         <v>43405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.02233744765109854</v>
+        <v>0.05250951984126984</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01609690496073737</v>
+        <v>0.02965804200141683</v>
       </c>
     </row>
     <row r="116">
@@ -2057,11 +1945,9 @@
       <c r="B116" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="C116" t="n">
-        <v>0.03803986396374789</v>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>0.008010318246698723</v>
+        <v>0.02113416078474144</v>
       </c>
     </row>
     <row r="117">
@@ -2071,53 +1957,9 @@
       <c r="B117" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="C117" t="n">
-        <v>0.05250951984126984</v>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>-0.00103114528749932</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="C118" t="n">
-        <v>-0.04281547619047619</v>
-      </c>
-      <c r="D118" t="n">
-        <v>-0.009827833508586389</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>43525</v>
-      </c>
-      <c r="C119" t="n">
-        <v>-0.06487509038800705</v>
-      </c>
-      <c r="D119" t="n">
-        <v>-0.01121261254289288</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="C120" t="n">
-        <v>-0.07482787698412698</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.001234725912845999</v>
+        <v>0.02034204643777577</v>
       </c>
     </row>
   </sheetData>
